--- a/resources/reports/Patient Profile Report.xlsx
+++ b/resources/reports/Patient Profile Report.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Mar2019" sheetId="18" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Cebu Treatment and Rehabilitation Center (TRC) for Female</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Name of Patient</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -43,12 +40,6 @@
     <t xml:space="preserve">Educational </t>
   </si>
   <si>
-    <t xml:space="preserve">Monthly </t>
-  </si>
-  <si>
-    <t>Occupation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Center </t>
   </si>
   <si>
@@ -58,34 +49,25 @@
     <t>Confinement</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
     <t>(M/D/Y)</t>
   </si>
   <si>
     <t>Attainment</t>
   </si>
   <si>
-    <t>Income</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Used</t>
   </si>
   <si>
-    <t>Diagnosis</t>
-  </si>
-  <si>
     <t>Date Enrolled</t>
   </si>
   <si>
     <t>Aftercare Enrollment  Profile for the month of March 2019</t>
+  </si>
+  <si>
+    <t>Civil Status</t>
   </si>
 </sst>
 </file>
@@ -244,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,17 +244,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,12 +301,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -298,33 +310,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -631,329 +616,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="C1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.45" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="3:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-    </row>
-    <row r="3" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-    </row>
-    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    </row>
+    <row r="4" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="J6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="24" t="s">
+      <c r="M6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28" t="s">
+      <c r="P6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="24" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="2" t="s">
+    </row>
+    <row r="7" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="17"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="N7" s="21"/>
+      <c r="O7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="P7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-    </row>
-    <row r="11" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-    </row>
-    <row r="15" spans="1:20" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-    </row>
-    <row r="18" spans="1:20" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="3:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="3:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="3:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="3:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="3:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="3:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+    </row>
+    <row r="15" spans="3:18" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:18" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+    </row>
+    <row r="18" spans="3:18" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="3:18" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:L6"/>
+  <mergeCells count="23">
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="O15:P15"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>

--- a/resources/reports/Patient Profile Report.xlsx
+++ b/resources/reports/Patient Profile Report.xlsx
@@ -255,9 +255,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,12 +300,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,21 +311,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,6 +327,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="FINAL LOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1990725" y="76200"/>
+          <a:ext cx="676275" cy="699136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 4" descr="https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcSWcRZsh409i6vKoXKK6TGatFQkWisidMZI_4qnuCV-vuzNcmYO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9267825" y="19050"/>
+          <a:ext cx="714375" cy="723901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,7 +746,7 @@
   <dimension ref="C1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,44 +768,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="3:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
@@ -687,24 +814,24 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="11"/>
@@ -725,34 +852,34 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="26"/>
+      <c r="L6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="2" t="s">
         <v>8</v>
       </c>
@@ -760,27 +887,27 @@
         <v>9</v>
       </c>
       <c r="Q6" s="2"/>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="17"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="27" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="20" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="3" t="s">
         <v>13</v>
       </c>
@@ -788,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="17"/>
+      <c r="R7" s="24"/>
     </row>
     <row r="8" spans="3:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8"/>
@@ -811,12 +938,12 @@
     <row r="15" spans="3:18" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -833,49 +960,42 @@
       <c r="K17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="3:18" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="3:18" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="M18:N18"/>
     <mergeCell ref="F19:K19"/>
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="C2:R2"/>
@@ -892,8 +1012,16 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>